--- a/data/img_size_investigation.xlsx
+++ b/data/img_size_investigation.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sf138614/Desktop/resku2-master/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE345230-8B5F-C046-8E02-D452F8E85830}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="460" windowWidth="27240" windowHeight="16440" xr2:uid="{B6A23DF6-37DA-2A42-B027-8D3A769CC9A8}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -36,13 +33,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -128,7 +126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -180,7 +178,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -374,23 +372,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1A7FB9-ED07-D54F-A5CA-C53A32523C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1078"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1010" sqref="D1010"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -410,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3">
         <v>8</v>
       </c>
@@ -419,7 +417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4">
         <v>48</v>
       </c>
@@ -428,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -437,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>74</v>
       </c>
@@ -449,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -458,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>40</v>
       </c>
@@ -470,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -479,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>12</v>
       </c>
@@ -488,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -500,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -512,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -524,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -533,13 +531,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="C15">
         <f>IF((1-ISBLANK(A15)) + (1-ISBLANK(B15)), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="B16">
         <v>10</v>
       </c>
@@ -548,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -560,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -569,13 +567,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="C19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -587,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="B21">
         <v>71</v>
       </c>
@@ -596,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -608,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>59</v>
       </c>
@@ -620,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -632,19 +630,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="C25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="C26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="B27">
         <v>6</v>
       </c>
@@ -653,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>10</v>
       </c>
@@ -662,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>62</v>
       </c>
@@ -674,13 +672,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="C30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -692,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="B32">
         <v>9</v>
       </c>
@@ -701,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="B33">
         <v>13</v>
       </c>
@@ -710,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="B34">
         <v>29</v>
       </c>
@@ -719,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -731,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>9</v>
       </c>
@@ -743,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>17</v>
       </c>
@@ -752,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -764,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="B39">
         <v>5</v>
       </c>
@@ -773,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -785,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -797,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>28</v>
       </c>
@@ -806,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -818,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -830,13 +828,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="C45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="B46">
         <v>10</v>
       </c>
@@ -845,13 +843,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="C47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>36</v>
       </c>
@@ -863,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="B49">
         <v>34</v>
       </c>
@@ -872,19 +870,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="C50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="C51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>36</v>
       </c>
@@ -896,13 +894,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="C53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="B54">
         <v>8</v>
       </c>
@@ -911,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>8</v>
       </c>
@@ -920,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -932,19 +930,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="C57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="C58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="B59">
         <v>8</v>
       </c>
@@ -953,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="B60">
         <v>9</v>
       </c>
@@ -962,13 +960,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="C61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="B62">
         <v>53</v>
       </c>
@@ -977,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -989,13 +987,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="C64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="B66">
         <v>9</v>
       </c>
@@ -1016,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="B68">
         <v>24</v>
       </c>
@@ -1034,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>20</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="B70">
         <v>30</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="B71">
         <v>10</v>
       </c>
@@ -1064,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="B72">
         <v>70</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="B73">
         <v>35</v>
       </c>
@@ -1082,13 +1080,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="C74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="B75">
         <v>7</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -1106,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="B77">
         <v>20</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>38</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="B79">
         <v>50</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="B80">
         <v>7</v>
       </c>
@@ -1145,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>21</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>41</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>44</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>9</v>
       </c>
@@ -1190,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="B85">
         <v>58</v>
       </c>
@@ -1199,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="B86">
         <v>48</v>
       </c>
@@ -1208,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>40</v>
       </c>
@@ -1217,13 +1215,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="C88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>25</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="B90">
         <v>6</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>15</v>
       </c>
@@ -1253,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>11</v>
       </c>
@@ -1271,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>30</v>
       </c>
@@ -1280,13 +1278,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="C95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>18</v>
       </c>
@@ -1295,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>33</v>
       </c>
@@ -1304,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="B98">
         <v>4</v>
       </c>
@@ -1313,13 +1311,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="C99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -1328,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>3</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>8</v>
       </c>
@@ -1349,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -1358,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -1370,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="B105">
         <v>3</v>
       </c>
@@ -1379,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>55</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>18</v>
       </c>
@@ -1403,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>10</v>
       </c>
@@ -1415,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>4</v>
       </c>
@@ -1427,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="B111">
         <v>9</v>
       </c>
@@ -1448,19 +1446,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="C112">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="C113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>27</v>
       </c>
@@ -1472,13 +1470,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="C115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>4</v>
       </c>
@@ -1487,25 +1485,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="C117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="C118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="C119">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -1517,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>7</v>
       </c>
@@ -1526,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>9</v>
       </c>
@@ -1538,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -1550,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>8</v>
       </c>
@@ -1559,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -1568,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="B126">
         <v>31</v>
       </c>
@@ -1577,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>6</v>
       </c>
@@ -1589,19 +1587,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="C128">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="C129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>2</v>
       </c>
@@ -1613,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="B131">
         <v>10</v>
       </c>
@@ -1622,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>70</v>
       </c>
@@ -1631,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="B133">
         <v>10</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -1652,13 +1650,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="C135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>8</v>
       </c>
@@ -1667,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>4</v>
       </c>
@@ -1679,13 +1677,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="C138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -1694,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>23</v>
       </c>
@@ -1703,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -1715,13 +1713,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="C142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="B143">
         <v>15</v>
       </c>
@@ -1730,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>15</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="B145">
         <v>14</v>
       </c>
@@ -1751,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="B147">
         <v>7</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="B148">
         <v>18</v>
       </c>
@@ -1781,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="B149">
         <v>18</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="B150">
         <v>5</v>
       </c>
@@ -1799,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -1811,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>7</v>
       </c>
@@ -1823,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>31</v>
       </c>
@@ -1832,13 +1830,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="C154">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>58</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="B156">
         <v>6</v>
       </c>
@@ -1859,13 +1857,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="C157">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="B158">
         <v>3</v>
       </c>
@@ -1874,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>4</v>
       </c>
@@ -1886,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="B160">
         <v>7</v>
       </c>
@@ -1895,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>20</v>
       </c>
@@ -1907,13 +1905,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="C162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="B163">
         <v>14</v>
       </c>
@@ -1922,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="B164">
         <v>10</v>
       </c>
@@ -1931,13 +1929,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="C165">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>25</v>
       </c>
@@ -1946,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>5</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>6</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>48</v>
       </c>
@@ -1976,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="B170">
         <v>42</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="B171">
         <v>60</v>
       </c>
@@ -1994,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>9</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="B173">
         <v>42</v>
       </c>
@@ -2012,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>13</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -2033,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="B176">
         <v>3</v>
       </c>
@@ -2042,13 +2040,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="C177">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>9</v>
       </c>
@@ -2060,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="B179">
         <v>4</v>
       </c>
@@ -2069,13 +2067,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="C180">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>5</v>
       </c>
@@ -2084,13 +2082,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="C182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>11</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>4</v>
       </c>
@@ -2108,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="B185">
         <v>18</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="B186">
         <v>6</v>
       </c>
@@ -2126,13 +2124,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="C187">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>13</v>
       </c>
@@ -2141,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>20</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>10</v>
       </c>
@@ -2162,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="B191">
         <v>40</v>
       </c>
@@ -2171,13 +2169,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="C192">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>50</v>
       </c>
@@ -2186,13 +2184,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="C194">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="B195">
         <v>10</v>
       </c>
@@ -2201,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>3</v>
       </c>
@@ -2210,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>16</v>
       </c>
@@ -2222,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>7</v>
       </c>
@@ -2231,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>5</v>
       </c>
@@ -2243,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>15</v>
       </c>
@@ -2252,31 +2250,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="C201">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="C202">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="C203">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="C204">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>45</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="B206">
         <v>26</v>
       </c>
@@ -2294,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="B207">
         <v>7</v>
       </c>
@@ -2303,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>2</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>15</v>
       </c>
@@ -2321,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>6</v>
       </c>
@@ -2330,19 +2328,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="C211">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="C212">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>7</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>22</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>70</v>
       </c>
@@ -2375,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="B216">
         <v>18</v>
       </c>
@@ -2384,13 +2382,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="C217">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>8</v>
       </c>
@@ -2402,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>82</v>
       </c>
@@ -2414,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>12</v>
       </c>
@@ -2426,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>16</v>
       </c>
@@ -2438,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>15</v>
       </c>
@@ -2447,13 +2445,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="C223">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>6</v>
       </c>
@@ -2465,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>5</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="B226">
         <v>4</v>
       </c>
@@ -2486,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>3</v>
       </c>
@@ -2498,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="B228">
         <v>2</v>
       </c>
@@ -2507,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>50</v>
       </c>
@@ -2516,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="B230">
         <v>6</v>
       </c>
@@ -2525,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="B231">
         <v>4</v>
       </c>
@@ -2534,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="B232">
         <v>9</v>
       </c>
@@ -2543,13 +2541,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="C233">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>40</v>
       </c>
@@ -2558,13 +2556,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="C235">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="B236">
         <v>47</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="B237">
         <v>22</v>
       </c>
@@ -2582,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="B238">
         <v>10</v>
       </c>
@@ -2591,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>21</v>
       </c>
@@ -2603,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>4</v>
       </c>
@@ -2612,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>12</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="B242">
         <v>21</v>
       </c>
@@ -2630,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>14</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>8</v>
       </c>
@@ -2654,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>25</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>57</v>
       </c>
@@ -2675,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="B247">
         <v>8</v>
       </c>
@@ -2684,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>8</v>
       </c>
@@ -2696,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>4</v>
       </c>
@@ -2705,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="B250">
         <v>16</v>
       </c>
@@ -2714,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="B251">
         <v>11</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="B252">
         <v>11</v>
       </c>
@@ -2732,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>12</v>
       </c>
@@ -2741,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>3</v>
       </c>
@@ -2750,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="B255">
         <v>4</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256">
         <v>10</v>
       </c>
@@ -2771,25 +2769,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="C257">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="C258">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="C259">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260">
         <v>32</v>
       </c>
@@ -2798,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261">
         <v>14</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="B262">
         <v>43</v>
       </c>
@@ -2816,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263">
         <v>48</v>
       </c>
@@ -2828,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264">
         <v>5</v>
       </c>
@@ -2837,13 +2835,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="C265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="B266">
         <v>4</v>
       </c>
@@ -2852,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>47</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>5</v>
       </c>
@@ -2870,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269">
         <v>7</v>
       </c>
@@ -2879,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="B270">
         <v>14</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="B271">
         <v>15</v>
       </c>
@@ -2897,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="B272">
         <v>7</v>
       </c>
@@ -2906,13 +2904,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="C273">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274">
         <v>6</v>
       </c>
@@ -2924,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275">
         <v>16</v>
       </c>
@@ -2933,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276">
         <v>13</v>
       </c>
@@ -2942,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277">
         <v>4</v>
       </c>
@@ -2951,13 +2949,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="C278">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="B279">
         <v>45</v>
       </c>
@@ -2966,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280">
         <v>12</v>
       </c>
@@ -2978,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="B281">
         <v>2</v>
       </c>
@@ -2987,19 +2985,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="C282">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="C283">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284">
         <v>11</v>
       </c>
@@ -3011,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="B285">
         <v>10</v>
       </c>
@@ -3020,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286">
         <v>6</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287">
         <v>20</v>
       </c>
@@ -3044,19 +3042,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="C288">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="C289">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290">
         <v>4</v>
       </c>
@@ -3068,13 +3066,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="C291">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292">
         <v>3</v>
       </c>
@@ -3083,19 +3081,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="C293">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="C294">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="B295">
         <v>25</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296">
         <v>2</v>
       </c>
@@ -3113,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297">
         <v>4</v>
       </c>
@@ -3122,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="B298">
         <v>11</v>
       </c>
@@ -3131,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299">
         <v>50</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300">
         <v>10</v>
       </c>
@@ -3149,13 +3147,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="C301">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="B302">
         <v>8</v>
       </c>
@@ -3164,13 +3162,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="C303">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304">
         <v>55</v>
       </c>
@@ -3182,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305">
         <v>5</v>
       </c>
@@ -3191,13 +3189,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="C306">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="B307">
         <v>7</v>
       </c>
@@ -3206,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308">
         <v>6</v>
       </c>
@@ -3218,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309">
         <v>12</v>
       </c>
@@ -3230,13 +3228,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="C310">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311">
         <v>37</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312">
         <v>6</v>
       </c>
@@ -3260,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="B313">
         <v>13</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314">
         <v>4</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="B315">
         <v>9</v>
       </c>
@@ -3287,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="B316">
         <v>8</v>
       </c>
@@ -3296,13 +3294,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="C317">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="B318">
         <v>8</v>
       </c>
@@ -3311,13 +3309,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="C319">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="B320">
         <v>104</v>
       </c>
@@ -3326,13 +3324,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="C321">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322">
         <v>3</v>
       </c>
@@ -3341,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3">
       <c r="A323">
         <v>2</v>
       </c>
@@ -3353,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3">
       <c r="A324">
         <v>7</v>
       </c>
@@ -3362,13 +3360,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3">
       <c r="C325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3">
       <c r="A326">
         <v>21</v>
       </c>
@@ -3380,19 +3378,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3">
       <c r="C327">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3">
       <c r="C328">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3">
       <c r="A329">
         <v>33</v>
       </c>
@@ -3401,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3">
       <c r="A330">
         <v>24</v>
       </c>
@@ -3413,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331">
         <v>3</v>
       </c>
@@ -3425,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332">
         <v>4</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333">
         <v>5</v>
       </c>
@@ -3449,13 +3447,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="C334">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="B335">
         <v>52</v>
       </c>
@@ -3464,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="B336">
         <v>4</v>
       </c>
@@ -3473,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337">
         <v>4</v>
       </c>
@@ -3482,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338">
         <v>34</v>
       </c>
@@ -3491,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="B339">
         <v>34</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="B340">
         <v>5</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341">
         <v>3</v>
       </c>
@@ -3521,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="B342">
         <v>30</v>
       </c>
@@ -3530,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343">
         <v>3</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="B344">
         <v>9</v>
       </c>
@@ -3551,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345">
         <v>34</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346">
         <v>5</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347">
         <v>25</v>
       </c>
@@ -3578,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348">
         <v>4</v>
       </c>
@@ -3587,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349">
         <v>40</v>
       </c>
@@ -3599,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="B350">
         <v>40</v>
       </c>
@@ -3608,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="B351">
         <v>20</v>
       </c>
@@ -3617,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="B352">
         <v>40</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="B353">
         <v>30</v>
       </c>
@@ -3635,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354">
         <v>3</v>
       </c>
@@ -3644,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355">
         <v>11</v>
       </c>
@@ -3656,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356">
         <v>14</v>
       </c>
@@ -3665,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357">
         <v>8</v>
       </c>
@@ -3677,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358">
         <v>23</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359">
         <v>7</v>
       </c>
@@ -3698,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="B360">
         <v>7</v>
       </c>
@@ -3707,13 +3705,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="C361">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="B362">
         <v>6</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363">
         <v>6</v>
       </c>
@@ -3731,13 +3729,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="C364">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365">
         <v>7</v>
       </c>
@@ -3746,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366">
         <v>11</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367">
         <v>19</v>
       </c>
@@ -3764,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368">
         <v>5</v>
       </c>
@@ -3776,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369">
         <v>15</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370">
         <v>10</v>
       </c>
@@ -3797,13 +3795,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="C371">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="B372">
         <v>10</v>
       </c>
@@ -3812,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373">
         <v>3</v>
       </c>
@@ -3824,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="B374">
         <v>7</v>
       </c>
@@ -3833,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="B375">
         <v>9</v>
       </c>
@@ -3842,19 +3840,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="C376">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="C377">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="B378">
         <v>2</v>
       </c>
@@ -3863,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379">
         <v>5</v>
       </c>
@@ -3875,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="B380">
         <v>4</v>
       </c>
@@ -3884,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381">
         <v>5</v>
       </c>
@@ -3893,13 +3891,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="C382">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3">
       <c r="B383">
         <v>9</v>
       </c>
@@ -3908,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3">
       <c r="B384">
         <v>4</v>
       </c>
@@ -3917,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3">
       <c r="B385">
         <v>3</v>
       </c>
@@ -3926,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3">
       <c r="B386">
         <v>4</v>
       </c>
@@ -3935,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3">
       <c r="A387">
         <v>50</v>
       </c>
@@ -3947,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3">
       <c r="A388">
         <v>50</v>
       </c>
@@ -3956,13 +3954,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3">
       <c r="C389">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3">
       <c r="B390">
         <v>7</v>
       </c>
@@ -3971,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3">
       <c r="A391">
         <v>10</v>
       </c>
@@ -3983,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3">
       <c r="B392">
         <v>60</v>
       </c>
@@ -3992,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3">
       <c r="B393">
         <v>6</v>
       </c>
@@ -4001,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3">
       <c r="A394">
         <v>2</v>
       </c>
@@ -4010,13 +4008,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3">
       <c r="C395">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3">
       <c r="A396">
         <v>20</v>
       </c>
@@ -4028,13 +4026,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3">
       <c r="C397">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3">
       <c r="A398">
         <v>5</v>
       </c>
@@ -4043,13 +4041,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3">
       <c r="C399">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3">
       <c r="B400">
         <v>17</v>
       </c>
@@ -4058,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3">
       <c r="A401">
         <v>42</v>
       </c>
@@ -4067,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3">
       <c r="A402">
         <v>18</v>
       </c>
@@ -4076,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3">
       <c r="A403">
         <v>6</v>
       </c>
@@ -4085,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3">
       <c r="A404">
         <v>2</v>
       </c>
@@ -4097,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3">
       <c r="B405">
         <v>5</v>
       </c>
@@ -4106,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3">
       <c r="B406">
         <v>13</v>
       </c>
@@ -4115,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3">
       <c r="A407">
         <v>9</v>
       </c>
@@ -4127,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3">
       <c r="A408">
         <v>7</v>
       </c>
@@ -4136,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3">
       <c r="B409">
         <v>14</v>
       </c>
@@ -4145,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3">
       <c r="A410">
         <v>2</v>
       </c>
@@ -4154,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3">
       <c r="A411">
         <v>3</v>
       </c>
@@ -4163,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3">
       <c r="A412">
         <v>10</v>
       </c>
@@ -4172,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3">
       <c r="A413">
         <v>9</v>
       </c>
@@ -4184,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3">
       <c r="A414">
         <v>8</v>
       </c>
@@ -4193,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3">
       <c r="B415">
         <v>60</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3">
       <c r="A416">
         <v>45</v>
       </c>
@@ -4211,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3">
       <c r="A417">
         <v>50</v>
       </c>
@@ -4220,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3">
       <c r="A418">
         <v>5</v>
       </c>
@@ -4232,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3">
       <c r="B419">
         <v>7</v>
       </c>
@@ -4241,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3">
       <c r="A420">
         <v>24</v>
       </c>
@@ -4253,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3">
       <c r="A421">
         <v>28</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3">
       <c r="A422">
         <v>13</v>
       </c>
@@ -4277,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3">
       <c r="A423">
         <v>9</v>
       </c>
@@ -4289,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3">
       <c r="B424">
         <v>80</v>
       </c>
@@ -4298,13 +4296,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3">
       <c r="C425">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3">
       <c r="A426">
         <v>51</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3">
       <c r="A427">
         <v>4</v>
       </c>
@@ -4325,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3">
       <c r="B428">
         <v>11</v>
       </c>
@@ -4334,25 +4332,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3">
       <c r="C429">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3">
       <c r="C430">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3">
       <c r="C431">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3">
       <c r="A432">
         <v>12</v>
       </c>
@@ -4361,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3">
       <c r="B433">
         <v>8</v>
       </c>
@@ -4370,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3">
       <c r="A434">
         <v>2</v>
       </c>
@@ -4382,13 +4380,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3">
       <c r="C435">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3">
       <c r="B436">
         <v>9</v>
       </c>
@@ -4397,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3">
       <c r="A437">
         <v>27</v>
       </c>
@@ -4409,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3">
       <c r="A438">
         <v>24</v>
       </c>
@@ -4421,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3">
       <c r="B439">
         <v>65</v>
       </c>
@@ -4430,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3">
       <c r="B440">
         <v>30</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3">
       <c r="B441">
         <v>12</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3">
       <c r="B442">
         <v>8</v>
       </c>
@@ -4457,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3">
       <c r="A443">
         <v>18</v>
       </c>
@@ -4466,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3">
       <c r="B444">
         <v>6</v>
       </c>
@@ -4475,13 +4473,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3">
       <c r="C445">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3">
       <c r="A446">
         <v>69</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3">
       <c r="A447">
         <v>32</v>
       </c>
@@ -4502,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3">
       <c r="A448">
         <v>7</v>
       </c>
@@ -4514,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3">
       <c r="A449">
         <v>16</v>
       </c>
@@ -4526,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3">
       <c r="B450">
         <v>5</v>
       </c>
@@ -4535,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3">
       <c r="A451">
         <v>11</v>
       </c>
@@ -4547,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3">
       <c r="A452">
         <v>5</v>
       </c>
@@ -4556,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3">
       <c r="A453">
         <v>3</v>
       </c>
@@ -4565,19 +4563,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3">
       <c r="C454">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3">
       <c r="C455">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3">
       <c r="B456">
         <v>36</v>
       </c>
@@ -4586,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3">
       <c r="A457">
         <v>7</v>
       </c>
@@ -4595,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3">
       <c r="A458">
         <v>1</v>
       </c>
@@ -4607,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3">
       <c r="B459">
         <v>14</v>
       </c>
@@ -4616,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3">
       <c r="A460">
         <v>52</v>
       </c>
@@ -4625,19 +4623,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3">
       <c r="C461">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3">
       <c r="C462">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3">
       <c r="B463">
         <v>6</v>
       </c>
@@ -4646,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3">
       <c r="A464">
         <v>4</v>
       </c>
@@ -4655,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3">
       <c r="A465">
         <v>10</v>
       </c>
@@ -4667,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3">
       <c r="A466">
         <v>6</v>
       </c>
@@ -4679,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3">
       <c r="B467">
         <v>3</v>
       </c>
@@ -4688,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3">
       <c r="A468">
         <v>25</v>
       </c>
@@ -4700,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3">
       <c r="A469">
         <v>55</v>
       </c>
@@ -4709,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3">
       <c r="A470">
         <v>26</v>
       </c>
@@ -4718,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3">
       <c r="A471">
         <v>15</v>
       </c>
@@ -4727,31 +4725,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3">
       <c r="C472">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3">
       <c r="C473">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3">
       <c r="C474">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3">
       <c r="C475">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3">
       <c r="A476">
         <v>4</v>
       </c>
@@ -4760,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3">
       <c r="B477">
         <v>11</v>
       </c>
@@ -4769,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3">
       <c r="B478">
         <v>5</v>
       </c>
@@ -4778,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3">
       <c r="B479">
         <v>56</v>
       </c>
@@ -4787,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3">
       <c r="B480">
         <v>60</v>
       </c>
@@ -4796,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3">
       <c r="A481">
         <v>5</v>
       </c>
@@ -4808,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3">
       <c r="A482">
         <v>8</v>
       </c>
@@ -4820,13 +4818,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3">
       <c r="C483">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3">
       <c r="A484">
         <v>29</v>
       </c>
@@ -4835,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3">
       <c r="A485">
         <v>10</v>
       </c>
@@ -4844,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3">
       <c r="B486">
         <v>27</v>
       </c>
@@ -4853,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3">
       <c r="A487">
         <v>6</v>
       </c>
@@ -4865,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3">
       <c r="A488">
         <v>19</v>
       </c>
@@ -4877,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3">
       <c r="B489">
         <v>16</v>
       </c>
@@ -4886,13 +4884,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3">
       <c r="C490">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3">
       <c r="A491">
         <v>64</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3">
       <c r="A492">
         <v>43</v>
       </c>
@@ -4913,19 +4911,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3">
       <c r="C493">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3">
       <c r="C494">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3">
       <c r="B495">
         <v>3</v>
       </c>
@@ -4934,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3">
       <c r="A496">
         <v>9</v>
       </c>
@@ -4946,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3">
       <c r="B497">
         <v>36</v>
       </c>
@@ -4955,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3">
       <c r="A498">
         <v>50</v>
       </c>
@@ -4967,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3">
       <c r="B499">
         <v>9</v>
       </c>
@@ -4976,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3">
       <c r="B500">
         <v>99</v>
       </c>
@@ -4985,13 +4983,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3">
       <c r="C501">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3">
       <c r="A502">
         <v>12</v>
       </c>
@@ -5003,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3">
       <c r="B503">
         <v>12</v>
       </c>
@@ -5012,13 +5010,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3">
       <c r="C504">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3">
       <c r="A505">
         <v>5</v>
       </c>
@@ -5030,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3">
       <c r="A506">
         <v>9</v>
       </c>
@@ -5039,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3">
       <c r="B507">
         <v>19</v>
       </c>
@@ -5048,13 +5046,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3">
       <c r="C508">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3">
       <c r="B509">
         <v>6</v>
       </c>
@@ -5063,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3">
       <c r="B510">
         <v>8</v>
       </c>
@@ -5072,13 +5070,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3">
       <c r="C511">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3">
       <c r="A512">
         <v>14</v>
       </c>
@@ -5090,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3">
       <c r="A513">
         <v>5</v>
       </c>
@@ -5099,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3">
       <c r="A514">
         <v>3</v>
       </c>
@@ -5108,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3">
       <c r="B515">
         <v>35</v>
       </c>
@@ -5117,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3">
       <c r="A516">
         <v>26</v>
       </c>
@@ -5129,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3">
       <c r="A517">
         <v>18</v>
       </c>
@@ -5141,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3">
       <c r="A518">
         <v>5</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3">
       <c r="A519">
         <v>50</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3">
       <c r="A520">
         <v>5</v>
       </c>
@@ -5171,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3">
       <c r="B521">
         <v>6</v>
       </c>
@@ -5180,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3">
       <c r="A522">
         <v>10</v>
       </c>
@@ -5192,13 +5190,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3">
       <c r="C523">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3">
       <c r="B524">
         <v>11</v>
       </c>
@@ -5207,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3">
       <c r="B525">
         <v>8</v>
       </c>
@@ -5216,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3">
       <c r="A526">
         <v>14</v>
       </c>
@@ -5228,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3">
       <c r="B527">
         <v>6</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3">
       <c r="A528">
         <v>2</v>
       </c>
@@ -5249,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3">
       <c r="A529">
         <v>18</v>
       </c>
@@ -5261,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3">
       <c r="B530">
         <v>37</v>
       </c>
@@ -5270,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3">
       <c r="A531">
         <v>95</v>
       </c>
@@ -5279,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3">
       <c r="A532">
         <v>7</v>
       </c>
@@ -5288,7 +5286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3">
       <c r="B533">
         <v>15</v>
       </c>
@@ -5297,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3">
       <c r="A534">
         <v>28</v>
       </c>
@@ -5306,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3">
       <c r="B535">
         <v>17</v>
       </c>
@@ -5315,19 +5313,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3">
       <c r="C536">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3">
       <c r="C537">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3">
       <c r="B538">
         <v>2</v>
       </c>
@@ -5336,13 +5334,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3">
       <c r="C539">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3">
       <c r="A540">
         <v>8</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3">
       <c r="B541">
         <v>6</v>
       </c>
@@ -5360,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3">
       <c r="A542">
         <v>3</v>
       </c>
@@ -5372,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3">
       <c r="A543">
         <v>6</v>
       </c>
@@ -5384,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3">
       <c r="A544">
         <v>29</v>
       </c>
@@ -5393,19 +5391,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3">
       <c r="C545">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3">
       <c r="C546">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3">
       <c r="A547">
         <v>36</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3">
       <c r="A548">
         <v>18</v>
       </c>
@@ -5429,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3">
       <c r="A549">
         <v>6</v>
       </c>
@@ -5441,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3">
       <c r="A550">
         <v>7</v>
       </c>
@@ -5450,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3">
       <c r="A551">
         <v>3</v>
       </c>
@@ -5459,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3">
       <c r="A552">
         <v>50</v>
       </c>
@@ -5468,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3">
       <c r="A553">
         <v>2</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3">
       <c r="B554">
         <v>10</v>
       </c>
@@ -5486,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3">
       <c r="B555">
         <v>19</v>
       </c>
@@ -5495,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3">
       <c r="A556">
         <v>65</v>
       </c>
@@ -5507,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3">
       <c r="B557">
         <v>70</v>
       </c>
@@ -5516,13 +5514,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3">
       <c r="C558">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3">
       <c r="B559">
         <v>5</v>
       </c>
@@ -5531,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3">
       <c r="A560">
         <v>6</v>
       </c>
@@ -5540,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3">
       <c r="B561">
         <v>8</v>
       </c>
@@ -5549,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3">
       <c r="A562">
         <v>24</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3">
       <c r="A563">
         <v>5</v>
       </c>
@@ -5567,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3">
       <c r="A564">
         <v>4</v>
       </c>
@@ -5576,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3">
       <c r="B565">
         <v>7</v>
       </c>
@@ -5585,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3">
       <c r="B566">
         <v>22</v>
       </c>
@@ -5594,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3">
       <c r="A567">
         <v>30</v>
       </c>
@@ -5603,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3">
       <c r="A568">
         <v>17</v>
       </c>
@@ -5615,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3">
       <c r="A569">
         <v>7</v>
       </c>
@@ -5627,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3">
       <c r="B570">
         <v>4</v>
       </c>
@@ -5636,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3">
       <c r="B571">
         <v>6</v>
       </c>
@@ -5645,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3">
       <c r="A572">
         <v>53</v>
       </c>
@@ -5657,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3">
       <c r="A573">
         <v>3</v>
       </c>
@@ -5666,13 +5664,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3">
       <c r="C574">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3">
       <c r="A575">
         <v>70</v>
       </c>
@@ -5681,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3">
       <c r="B576">
         <v>83</v>
       </c>
@@ -5690,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3">
       <c r="A577">
         <v>18</v>
       </c>
@@ -5702,13 +5700,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3">
       <c r="C578">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3">
       <c r="A579">
         <v>4</v>
       </c>
@@ -5717,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3">
       <c r="B580">
         <v>4</v>
       </c>
@@ -5726,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3">
       <c r="A581">
         <v>9</v>
       </c>
@@ -5738,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3">
       <c r="B582">
         <v>8</v>
       </c>
@@ -5747,13 +5745,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3">
       <c r="C583">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3">
       <c r="A584">
         <v>10</v>
       </c>
@@ -5762,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3">
       <c r="B585">
         <v>21</v>
       </c>
@@ -5771,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3">
       <c r="B586">
         <v>7</v>
       </c>
@@ -5780,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3">
       <c r="B587">
         <v>15</v>
       </c>
@@ -5789,13 +5787,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3">
       <c r="C588">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3">
       <c r="A589">
         <v>88</v>
       </c>
@@ -5804,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3">
       <c r="B590">
         <v>10</v>
       </c>
@@ -5813,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3">
       <c r="B591">
         <v>11</v>
       </c>
@@ -5822,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3">
       <c r="A592">
         <v>62</v>
       </c>
@@ -5831,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3">
       <c r="A593">
         <v>3</v>
       </c>
@@ -5843,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3">
       <c r="A594">
         <v>14</v>
       </c>
@@ -5855,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3">
       <c r="B595">
         <v>9</v>
       </c>
@@ -5864,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3">
       <c r="A596">
         <v>4</v>
       </c>
@@ -5876,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3">
       <c r="B597">
         <v>17</v>
       </c>
@@ -5885,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3">
       <c r="A598">
         <v>8</v>
       </c>
@@ -5897,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3">
       <c r="A599">
         <v>7</v>
       </c>
@@ -5906,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3">
       <c r="A600">
         <v>15</v>
       </c>
@@ -5915,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3">
       <c r="B601">
         <v>5</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3">
       <c r="A602">
         <v>11</v>
       </c>
@@ -5936,13 +5934,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3">
       <c r="C603">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3">
       <c r="B604">
         <v>14</v>
       </c>
@@ -5951,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3">
       <c r="A605">
         <v>48</v>
       </c>
@@ -5960,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3">
       <c r="B606">
         <v>11</v>
       </c>
@@ -5969,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3">
       <c r="B607">
         <v>5</v>
       </c>
@@ -5978,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3">
       <c r="B608">
         <v>35</v>
       </c>
@@ -5987,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3">
       <c r="B609">
         <v>42</v>
       </c>
@@ -5996,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3">
       <c r="B610">
         <v>11</v>
       </c>
@@ -6005,13 +6003,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3">
       <c r="C611">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3">
       <c r="A612">
         <v>13</v>
       </c>
@@ -6023,13 +6021,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3">
       <c r="C613">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3">
       <c r="A614">
         <v>64</v>
       </c>
@@ -6038,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3">
       <c r="A615">
         <v>44</v>
       </c>
@@ -6047,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3">
       <c r="A616">
         <v>8</v>
       </c>
@@ -6056,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3">
       <c r="A617">
         <v>5</v>
       </c>
@@ -6065,13 +6063,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3">
       <c r="C618">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3">
       <c r="B619">
         <v>4</v>
       </c>
@@ -6080,13 +6078,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3">
       <c r="C620">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3">
       <c r="A621">
         <v>3</v>
       </c>
@@ -6098,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3">
       <c r="A622">
         <v>29</v>
       </c>
@@ -6110,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3">
       <c r="A623">
         <v>2</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3">
       <c r="B624">
         <v>7</v>
       </c>
@@ -6128,13 +6126,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3">
       <c r="C625">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3">
       <c r="B626">
         <v>10</v>
       </c>
@@ -6143,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3">
       <c r="A627">
         <v>43</v>
       </c>
@@ -6155,19 +6153,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3">
       <c r="C628">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3">
       <c r="C629">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3">
       <c r="A630">
         <v>7</v>
       </c>
@@ -6179,13 +6177,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3">
       <c r="C631">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3">
       <c r="A632">
         <v>4</v>
       </c>
@@ -6197,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3">
       <c r="A633">
         <v>9</v>
       </c>
@@ -6206,19 +6204,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3">
       <c r="C634">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3">
       <c r="C635">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3">
       <c r="B636">
         <v>19</v>
       </c>
@@ -6227,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3">
       <c r="B637">
         <v>5</v>
       </c>
@@ -6236,13 +6234,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3">
       <c r="C638">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3">
       <c r="B639">
         <v>3</v>
       </c>
@@ -6251,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3">
       <c r="B640">
         <v>5</v>
       </c>
@@ -6260,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3">
       <c r="A641">
         <v>8</v>
       </c>
@@ -6272,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3">
       <c r="A642">
         <v>9</v>
       </c>
@@ -6284,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3">
       <c r="B643">
         <v>21</v>
       </c>
@@ -6293,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3">
       <c r="A644">
         <v>37</v>
       </c>
@@ -6305,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3">
       <c r="A645">
         <v>7</v>
       </c>
@@ -6314,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3">
       <c r="A646">
         <v>11</v>
       </c>
@@ -6326,19 +6324,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3">
       <c r="C647">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3">
       <c r="C648">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3">
       <c r="A649">
         <v>10</v>
       </c>
@@ -6347,13 +6345,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3">
       <c r="C650">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3">
       <c r="B651">
         <v>13</v>
       </c>
@@ -6362,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3">
       <c r="A652">
         <v>100</v>
       </c>
@@ -6371,13 +6369,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3">
       <c r="C653">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3">
       <c r="A654">
         <v>18</v>
       </c>
@@ -6386,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3">
       <c r="B655">
         <v>5</v>
       </c>
@@ -6395,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3">
       <c r="A656">
         <v>21</v>
       </c>
@@ -6404,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3">
       <c r="A657">
         <v>2</v>
       </c>
@@ -6416,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3">
       <c r="A658">
         <v>7</v>
       </c>
@@ -6425,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3">
       <c r="A659">
         <v>8</v>
       </c>
@@ -6437,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3">
       <c r="B660">
         <v>7</v>
       </c>
@@ -6446,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3">
       <c r="A661">
         <v>4</v>
       </c>
@@ -6458,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3">
       <c r="A662">
         <v>7</v>
       </c>
@@ -6470,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3">
       <c r="A663">
         <v>2</v>
       </c>
@@ -6479,13 +6477,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3">
       <c r="C664">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3">
       <c r="A665">
         <v>21</v>
       </c>
@@ -6497,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3">
       <c r="B666">
         <v>10</v>
       </c>
@@ -6506,7 +6504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3">
       <c r="B667">
         <v>9</v>
       </c>
@@ -6515,13 +6513,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3">
       <c r="C668">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3">
       <c r="B669">
         <v>14</v>
       </c>
@@ -6530,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3">
       <c r="A670">
         <v>36</v>
       </c>
@@ -6542,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3">
       <c r="A671">
         <v>40</v>
       </c>
@@ -6551,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3">
       <c r="A672">
         <v>6</v>
       </c>
@@ -6563,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3">
       <c r="A673">
         <v>5</v>
       </c>
@@ -6575,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3">
       <c r="A674">
         <v>11</v>
       </c>
@@ -6587,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3">
       <c r="A675">
         <v>11</v>
       </c>
@@ -6596,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3">
       <c r="B676">
         <v>20</v>
       </c>
@@ -6605,13 +6603,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3">
       <c r="C677">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3">
       <c r="B678">
         <v>65</v>
       </c>
@@ -6620,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3">
       <c r="A679">
         <v>13</v>
       </c>
@@ -6629,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3">
       <c r="A680">
         <v>60</v>
       </c>
@@ -6638,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3">
       <c r="A681">
         <v>32</v>
       </c>
@@ -6647,13 +6645,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3">
       <c r="C682">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3">
       <c r="A683">
         <v>2</v>
       </c>
@@ -6665,13 +6663,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3">
       <c r="C684">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3">
       <c r="A685">
         <v>3</v>
       </c>
@@ -6680,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3">
       <c r="B686">
         <v>6</v>
       </c>
@@ -6689,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3">
       <c r="B687">
         <v>6</v>
       </c>
@@ -6698,25 +6696,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3">
       <c r="C688">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3">
       <c r="C689">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3">
       <c r="C690">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3">
       <c r="B691">
         <v>5</v>
       </c>
@@ -6725,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3">
       <c r="A692">
         <v>7</v>
       </c>
@@ -6734,13 +6732,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3">
       <c r="C693">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3">
       <c r="A694">
         <v>3</v>
       </c>
@@ -6752,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3">
       <c r="B695">
         <v>26</v>
       </c>
@@ -6761,13 +6759,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3">
       <c r="C696">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3">
       <c r="A697">
         <v>10</v>
       </c>
@@ -6776,13 +6774,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3">
       <c r="C698">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3">
       <c r="A699">
         <v>6</v>
       </c>
@@ -6791,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3">
       <c r="B700">
         <v>8</v>
       </c>
@@ -6800,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3">
       <c r="A701">
         <v>51</v>
       </c>
@@ -6812,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3">
       <c r="A702">
         <v>5</v>
       </c>
@@ -6824,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3">
       <c r="B703">
         <v>6</v>
       </c>
@@ -6833,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3">
       <c r="B704">
         <v>26</v>
       </c>
@@ -6842,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3">
       <c r="B705">
         <v>13</v>
       </c>
@@ -6851,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3">
       <c r="A706">
         <v>6</v>
       </c>
@@ -6863,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3">
       <c r="B707">
         <v>6</v>
       </c>
@@ -6872,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3">
       <c r="A708">
         <v>7</v>
       </c>
@@ -6881,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3">
       <c r="B709">
         <v>30</v>
       </c>
@@ -6890,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3">
       <c r="B710">
         <v>5</v>
       </c>
@@ -6899,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3">
       <c r="A711">
         <v>5</v>
       </c>
@@ -6908,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3">
       <c r="A712">
         <v>12</v>
       </c>
@@ -6920,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3">
       <c r="A713">
         <v>64</v>
       </c>
@@ -6932,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3">
       <c r="B714">
         <v>20</v>
       </c>
@@ -6941,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3">
       <c r="B715">
         <v>9</v>
       </c>
@@ -6950,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3">
       <c r="B716">
         <v>7</v>
       </c>
@@ -6959,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3">
       <c r="B717">
         <v>18</v>
       </c>
@@ -6968,13 +6966,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3">
       <c r="C718">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3">
       <c r="A719">
         <v>8</v>
       </c>
@@ -6983,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3">
       <c r="A720">
         <v>65</v>
       </c>
@@ -6995,13 +6993,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3">
       <c r="C721">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3">
       <c r="B722">
         <v>73</v>
       </c>
@@ -7010,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3">
       <c r="B723">
         <v>35</v>
       </c>
@@ -7019,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3">
       <c r="A724">
         <v>62</v>
       </c>
@@ -7031,13 +7029,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3">
       <c r="C725">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3">
       <c r="A726">
         <v>22</v>
       </c>
@@ -7049,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3">
       <c r="B727">
         <v>10</v>
       </c>
@@ -7058,13 +7056,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3">
       <c r="C728">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3">
       <c r="A729">
         <v>25</v>
       </c>
@@ -7076,13 +7074,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3">
       <c r="C730">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3">
       <c r="A731">
         <v>9</v>
       </c>
@@ -7094,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3">
       <c r="A732">
         <v>8</v>
       </c>
@@ -7103,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3">
       <c r="B733">
         <v>18</v>
       </c>
@@ -7112,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3">
       <c r="A734">
         <v>8</v>
       </c>
@@ -7124,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3">
       <c r="A735">
         <v>5</v>
       </c>
@@ -7133,19 +7131,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3">
       <c r="C736">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3">
       <c r="C737">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3">
       <c r="A738">
         <v>13</v>
       </c>
@@ -7154,13 +7152,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3">
       <c r="C739">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3">
       <c r="B740">
         <v>150</v>
       </c>
@@ -7169,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3">
       <c r="A741">
         <v>4</v>
       </c>
@@ -7178,19 +7176,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3">
       <c r="C742">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3">
       <c r="C743">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3">
       <c r="B744">
         <v>7</v>
       </c>
@@ -7199,13 +7197,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3">
       <c r="C745">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3">
       <c r="B746">
         <v>8</v>
       </c>
@@ -7214,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3">
       <c r="A747">
         <v>8</v>
       </c>
@@ -7226,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3">
       <c r="B748">
         <v>25</v>
       </c>
@@ -7235,13 +7233,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3">
       <c r="C749">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3">
       <c r="A750">
         <v>7</v>
       </c>
@@ -7253,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3">
       <c r="A751">
         <v>18</v>
       </c>
@@ -7262,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3">
       <c r="B752">
         <v>7</v>
       </c>
@@ -7271,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3">
       <c r="A753">
         <v>9</v>
       </c>
@@ -7283,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3">
       <c r="A754">
         <v>16</v>
       </c>
@@ -7292,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3">
       <c r="B755">
         <v>7</v>
       </c>
@@ -7301,13 +7299,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3">
       <c r="C756">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3">
       <c r="A757">
         <v>120</v>
       </c>
@@ -7319,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3">
       <c r="A758">
         <v>11</v>
       </c>
@@ -7328,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3">
       <c r="A759">
         <v>17</v>
       </c>
@@ -7340,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3">
       <c r="A760">
         <v>36</v>
       </c>
@@ -7352,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3">
       <c r="B761">
         <v>5</v>
       </c>
@@ -7361,13 +7359,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3">
       <c r="C762">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3">
       <c r="B763">
         <v>8</v>
       </c>
@@ -7376,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3">
       <c r="B764">
         <v>21</v>
       </c>
@@ -7385,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3">
       <c r="B765">
         <v>18</v>
       </c>
@@ -7394,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3">
       <c r="A766">
         <v>14</v>
       </c>
@@ -7406,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3">
       <c r="B767">
         <v>35</v>
       </c>
@@ -7415,19 +7413,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3">
       <c r="C768">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3">
       <c r="C769">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3">
       <c r="B770">
         <v>42</v>
       </c>
@@ -7436,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3">
       <c r="B771">
         <v>52</v>
       </c>
@@ -7445,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3">
       <c r="A772">
         <v>5</v>
       </c>
@@ -7457,13 +7455,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3">
       <c r="C773">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3">
       <c r="B774">
         <v>4</v>
       </c>
@@ -7472,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3">
       <c r="B775">
         <v>3</v>
       </c>
@@ -7481,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3">
       <c r="B776">
         <v>14</v>
       </c>
@@ -7490,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3">
       <c r="B777">
         <v>12</v>
       </c>
@@ -7499,13 +7497,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3">
       <c r="C778">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3">
       <c r="B779">
         <v>73</v>
       </c>
@@ -7514,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3">
       <c r="A780">
         <v>4</v>
       </c>
@@ -7523,7 +7521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3">
       <c r="A781">
         <v>11</v>
       </c>
@@ -7535,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3">
       <c r="A782">
         <v>15</v>
       </c>
@@ -7547,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3">
       <c r="B783">
         <v>8</v>
       </c>
@@ -7556,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3">
       <c r="A784">
         <v>9</v>
       </c>
@@ -7565,13 +7563,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3">
       <c r="C785">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3">
       <c r="A786">
         <v>13</v>
       </c>
@@ -7583,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3">
       <c r="A787">
         <v>3</v>
       </c>
@@ -7595,13 +7593,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3">
       <c r="C788">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3">
       <c r="B789">
         <v>9</v>
       </c>
@@ -7610,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3">
       <c r="B790">
         <v>6</v>
       </c>
@@ -7619,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3">
       <c r="A791">
         <v>6</v>
       </c>
@@ -7628,25 +7626,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3">
       <c r="C792">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3">
       <c r="C793">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3">
       <c r="C794">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3">
       <c r="A795">
         <v>6</v>
       </c>
@@ -7658,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3">
       <c r="A796">
         <v>6</v>
       </c>
@@ -7667,13 +7665,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3">
       <c r="C797">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3">
       <c r="A798">
         <v>14</v>
       </c>
@@ -7682,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3">
       <c r="B799">
         <v>81</v>
       </c>
@@ -7691,13 +7689,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3">
       <c r="C800">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3">
       <c r="B801">
         <v>72</v>
       </c>
@@ -7706,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3">
       <c r="B802">
         <v>52</v>
       </c>
@@ -7715,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3">
       <c r="A803">
         <v>27</v>
       </c>
@@ -7727,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3">
       <c r="A804">
         <v>12</v>
       </c>
@@ -7736,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3">
       <c r="A805">
         <v>6</v>
       </c>
@@ -7745,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3">
       <c r="A806">
         <v>7</v>
       </c>
@@ -7757,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3">
       <c r="A807">
         <v>38</v>
       </c>
@@ -7766,13 +7764,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3">
       <c r="C808">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3">
       <c r="B809">
         <v>4</v>
       </c>
@@ -7781,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3">
       <c r="A810">
         <v>48</v>
       </c>
@@ -7790,19 +7788,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3">
       <c r="C811">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3">
       <c r="C812">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3">
       <c r="B813">
         <v>41</v>
       </c>
@@ -7811,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3">
       <c r="A814">
         <v>10</v>
       </c>
@@ -7823,13 +7821,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3">
       <c r="C815">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3">
       <c r="A816">
         <v>20</v>
       </c>
@@ -7838,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3">
       <c r="A817">
         <v>90</v>
       </c>
@@ -7850,7 +7848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:3">
       <c r="A818">
         <v>55</v>
       </c>
@@ -7862,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:3">
       <c r="B819">
         <v>18</v>
       </c>
@@ -7871,13 +7869,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:3">
       <c r="C820">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:3">
       <c r="B821">
         <v>3</v>
       </c>
@@ -7886,7 +7884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:3">
       <c r="B822">
         <v>30</v>
       </c>
@@ -7895,19 +7893,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:3">
       <c r="C823">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:3">
       <c r="C824">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:3">
       <c r="A825">
         <v>7</v>
       </c>
@@ -7916,13 +7914,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:3">
       <c r="C826">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:3">
       <c r="A827">
         <v>12</v>
       </c>
@@ -7934,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:3">
       <c r="A828">
         <v>9</v>
       </c>
@@ -7943,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:3">
       <c r="B829">
         <v>10</v>
       </c>
@@ -7952,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:3">
       <c r="A830">
         <v>5</v>
       </c>
@@ -7961,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:3">
       <c r="A831">
         <v>6</v>
       </c>
@@ -7970,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:3">
       <c r="A832">
         <v>6</v>
       </c>
@@ -7982,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3">
       <c r="B833">
         <v>50</v>
       </c>
@@ -7991,13 +7989,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3">
       <c r="C834">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3">
       <c r="A835">
         <v>20</v>
       </c>
@@ -8009,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:3">
       <c r="A836">
         <v>11</v>
       </c>
@@ -8021,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:3">
       <c r="B837">
         <v>5</v>
       </c>
@@ -8030,13 +8028,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:3">
       <c r="C838">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:3">
       <c r="A839">
         <v>15</v>
       </c>
@@ -8048,13 +8046,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:3">
       <c r="C840">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:3">
       <c r="B841">
         <v>15</v>
       </c>
@@ -8063,13 +8061,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:3">
       <c r="C842">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:3">
       <c r="B843">
         <v>4</v>
       </c>
@@ -8078,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:3">
       <c r="A844">
         <v>23</v>
       </c>
@@ -8090,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:3">
       <c r="A845">
         <v>5</v>
       </c>
@@ -8099,13 +8097,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:3">
       <c r="C846">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:3">
       <c r="B847">
         <v>7</v>
       </c>
@@ -8114,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:3">
       <c r="A848">
         <v>4</v>
       </c>
@@ -8123,13 +8121,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:3">
       <c r="C849">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:3">
       <c r="B850">
         <v>12</v>
       </c>
@@ -8138,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:3">
       <c r="B851">
         <v>13</v>
       </c>
@@ -8147,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:3">
       <c r="A852">
         <v>8</v>
       </c>
@@ -8156,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:3">
       <c r="A853">
         <v>10</v>
       </c>
@@ -8165,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:3">
       <c r="A854">
         <v>4</v>
       </c>
@@ -8177,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:3">
       <c r="B855">
         <v>40</v>
       </c>
@@ -8186,7 +8184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:3">
       <c r="A856">
         <v>8</v>
       </c>
@@ -8198,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:3">
       <c r="A857">
         <v>16</v>
       </c>
@@ -8207,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:3">
       <c r="A858">
         <v>19</v>
       </c>
@@ -8219,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:3">
       <c r="B859">
         <v>9</v>
       </c>
@@ -8228,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:3">
       <c r="A860">
         <v>32</v>
       </c>
@@ -8237,13 +8235,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:3">
       <c r="C861">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:3">
       <c r="A862">
         <v>40</v>
       </c>
@@ -8252,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:3">
       <c r="A863">
         <v>22</v>
       </c>
@@ -8261,13 +8259,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:3">
       <c r="C864">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:3">
       <c r="A865">
         <v>21</v>
       </c>
@@ -8279,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:3">
       <c r="A866">
         <v>2</v>
       </c>
@@ -8291,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:3">
       <c r="A867">
         <v>50</v>
       </c>
@@ -8300,7 +8298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:3">
       <c r="B868">
         <v>51</v>
       </c>
@@ -8309,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:3">
       <c r="B869">
         <v>51</v>
       </c>
@@ -8318,7 +8316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:3">
       <c r="A870">
         <v>4</v>
       </c>
@@ -8330,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:3">
       <c r="B871">
         <v>120</v>
       </c>
@@ -8339,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:3">
       <c r="A872">
         <v>56</v>
       </c>
@@ -8348,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:3">
       <c r="B873">
         <v>22</v>
       </c>
@@ -8357,13 +8355,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:3">
       <c r="C874">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:3">
       <c r="A875">
         <v>19</v>
       </c>
@@ -8372,13 +8370,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:3">
       <c r="C876">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:3">
       <c r="A877">
         <v>63</v>
       </c>
@@ -8387,37 +8385,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:3">
       <c r="C878">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:3">
       <c r="C879">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:3">
       <c r="C880">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:3">
       <c r="C881">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:3">
       <c r="C882">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3">
       <c r="A883">
         <v>8</v>
       </c>
@@ -8429,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:3">
       <c r="B884">
         <v>3</v>
       </c>
@@ -8438,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:3">
       <c r="A885">
         <v>16</v>
       </c>
@@ -8450,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:3">
       <c r="A886">
         <v>9</v>
       </c>
@@ -8462,13 +8460,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:3">
       <c r="C887">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:3">
       <c r="B888">
         <v>15</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:3">
       <c r="B889">
         <v>50</v>
       </c>
@@ -8486,7 +8484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:3">
       <c r="B890">
         <v>8</v>
       </c>
@@ -8495,13 +8493,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:3">
       <c r="C891">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:3">
       <c r="A892">
         <v>9</v>
       </c>
@@ -8510,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:3">
       <c r="A893">
         <v>90</v>
       </c>
@@ -8519,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:3">
       <c r="A894">
         <v>62</v>
       </c>
@@ -8528,7 +8526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:3">
       <c r="B895">
         <v>32</v>
       </c>
@@ -8537,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:3">
       <c r="A896">
         <v>3</v>
       </c>
@@ -8549,13 +8547,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:3">
       <c r="C897">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:3">
       <c r="B898">
         <v>6</v>
       </c>
@@ -8564,13 +8562,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:3">
       <c r="C899">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:3">
       <c r="A900">
         <v>7</v>
       </c>
@@ -8582,13 +8580,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:3">
       <c r="C901">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:3">
       <c r="B902">
         <v>47</v>
       </c>
@@ -8597,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:3">
       <c r="A903">
         <v>4</v>
       </c>
@@ -8606,13 +8604,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3">
       <c r="C904">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:3">
       <c r="B905">
         <v>11</v>
       </c>
@@ -8621,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3">
       <c r="A906">
         <v>20</v>
       </c>
@@ -8630,13 +8628,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:3">
       <c r="C907">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3">
       <c r="A908">
         <v>3</v>
       </c>
@@ -8645,19 +8643,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3">
       <c r="C909">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:3">
       <c r="C910">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:3">
       <c r="A911">
         <v>4</v>
       </c>
@@ -8669,13 +8667,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:3">
       <c r="C912">
         <f t="shared" ref="C912:C975" si="15">IF((1-ISBLANK(A912)) + (1-ISBLANK(B912)), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:3">
       <c r="A913">
         <v>44</v>
       </c>
@@ -8687,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:3">
       <c r="B914">
         <v>9</v>
       </c>
@@ -8696,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:3">
       <c r="A915">
         <v>52</v>
       </c>
@@ -8708,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:3">
       <c r="B916">
         <v>7</v>
       </c>
@@ -8717,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:3">
       <c r="A917">
         <v>19</v>
       </c>
@@ -8726,19 +8724,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:3">
       <c r="C918">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:3">
       <c r="C919">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:3">
       <c r="A920">
         <v>8</v>
       </c>
@@ -8747,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:3">
       <c r="A921">
         <v>32</v>
       </c>
@@ -8756,13 +8754,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:3">
       <c r="C922">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3">
       <c r="A923">
         <v>19</v>
       </c>
@@ -8774,19 +8772,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:3">
       <c r="C924">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:3">
       <c r="C925">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:3">
       <c r="B926">
         <v>2</v>
       </c>
@@ -8795,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:3">
       <c r="A927">
         <v>15</v>
       </c>
@@ -8804,13 +8802,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:3">
       <c r="C928">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:3">
       <c r="B929">
         <v>8</v>
       </c>
@@ -8819,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:3">
       <c r="A930">
         <v>2</v>
       </c>
@@ -8828,25 +8826,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:3">
       <c r="C931">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:3">
       <c r="C932">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:3">
       <c r="C933">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:3">
       <c r="B934">
         <v>22</v>
       </c>
@@ -8855,19 +8853,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:3">
       <c r="C935">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:3">
       <c r="C936">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:3">
       <c r="A937">
         <v>6</v>
       </c>
@@ -8876,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:3">
       <c r="B938">
         <v>16</v>
       </c>
@@ -8885,13 +8883,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:3">
       <c r="C939">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:3">
       <c r="A940">
         <v>5</v>
       </c>
@@ -8903,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:3">
       <c r="B941">
         <v>25</v>
       </c>
@@ -8912,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:3">
       <c r="A942">
         <v>8</v>
       </c>
@@ -8921,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:3">
       <c r="B943">
         <v>12</v>
       </c>
@@ -8930,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:3">
       <c r="A944">
         <v>7</v>
       </c>
@@ -8942,19 +8940,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:3">
       <c r="C945">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:3">
       <c r="C946">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:3">
       <c r="A947">
         <v>6</v>
       </c>
@@ -8963,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:3">
       <c r="A948">
         <v>11</v>
       </c>
@@ -8972,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:3">
       <c r="A949">
         <v>10</v>
       </c>
@@ -8984,19 +8982,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:3">
       <c r="C950">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:3">
       <c r="C951">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:3">
       <c r="B952">
         <v>50</v>
       </c>
@@ -9005,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:3">
       <c r="A953">
         <v>10</v>
       </c>
@@ -9017,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:3">
       <c r="A954">
         <v>16</v>
       </c>
@@ -9029,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:3">
       <c r="A955">
         <v>12</v>
       </c>
@@ -9038,13 +9036,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:3">
       <c r="C956">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:3">
       <c r="A957">
         <v>6</v>
       </c>
@@ -9056,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:3">
       <c r="A958">
         <v>10</v>
       </c>
@@ -9068,19 +9066,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:3">
       <c r="C959">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:3">
       <c r="C960">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:3">
       <c r="A961">
         <v>20</v>
       </c>
@@ -9089,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:3">
       <c r="A962">
         <v>45</v>
       </c>
@@ -9098,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:3">
       <c r="A963">
         <v>3</v>
       </c>
@@ -9107,13 +9105,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:3">
       <c r="C964">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:3">
       <c r="B965">
         <v>16</v>
       </c>
@@ -9122,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:3">
       <c r="A966">
         <v>5</v>
       </c>
@@ -9131,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:3">
       <c r="A967">
         <v>5</v>
       </c>
@@ -9143,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:3">
       <c r="B968">
         <v>52</v>
       </c>
@@ -9152,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:3">
       <c r="A969">
         <v>3</v>
       </c>
@@ -9161,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:3">
       <c r="B970">
         <v>10</v>
       </c>
@@ -9170,25 +9168,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:3">
       <c r="C971">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:3">
       <c r="C972">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:3">
       <c r="C973">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:3">
       <c r="A974">
         <v>5</v>
       </c>
@@ -9197,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:3">
       <c r="A975">
         <v>11</v>
       </c>
@@ -9206,19 +9204,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:3">
       <c r="C976">
         <f t="shared" ref="C976:C1039" si="16">IF((1-ISBLANK(A976)) + (1-ISBLANK(B976)), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:3">
       <c r="C977">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:3">
       <c r="A978">
         <v>4</v>
       </c>
@@ -9230,7 +9228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:3">
       <c r="B979">
         <v>56</v>
       </c>
@@ -9239,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:3">
       <c r="A980">
         <v>18</v>
       </c>
@@ -9248,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:3">
       <c r="A981">
         <v>13</v>
       </c>
@@ -9257,19 +9255,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:3">
       <c r="C982">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:3">
       <c r="C983">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:3">
       <c r="B984">
         <v>17</v>
       </c>
@@ -9278,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:3">
       <c r="B985">
         <v>18</v>
       </c>
@@ -9287,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:3">
       <c r="A986">
         <v>12</v>
       </c>
@@ -9296,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:3">
       <c r="B987">
         <v>6</v>
       </c>
@@ -9305,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:3">
       <c r="B988">
         <v>24</v>
       </c>
@@ -9314,19 +9312,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:3">
       <c r="C989">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:3">
       <c r="C990">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:3">
       <c r="A991">
         <v>19</v>
       </c>
@@ -9338,7 +9336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:3">
       <c r="A992">
         <v>5</v>
       </c>
@@ -9347,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:3">
       <c r="B993">
         <v>13</v>
       </c>
@@ -9356,13 +9354,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:3">
       <c r="C994">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:3">
       <c r="B995">
         <v>9</v>
       </c>
@@ -9371,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:3">
       <c r="B996">
         <v>4</v>
       </c>
@@ -9380,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:3">
       <c r="A997">
         <v>10</v>
       </c>
@@ -9389,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:3">
       <c r="A998">
         <v>21</v>
       </c>
@@ -9398,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:3">
       <c r="A999">
         <v>6</v>
       </c>
@@ -9410,7 +9408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:3">
       <c r="A1000">
         <v>25</v>
       </c>
@@ -9422,7 +9420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:3">
       <c r="A1001">
         <v>11</v>
       </c>
@@ -9431,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:3">
       <c r="B1002">
         <v>40</v>
       </c>
@@ -9440,7 +9438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:3">
       <c r="B1003">
         <v>6</v>
       </c>
@@ -9449,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:3">
       <c r="A1004">
         <v>9</v>
       </c>
@@ -9461,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:3">
       <c r="A1005">
         <v>91</v>
       </c>
@@ -9473,13 +9471,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:3">
       <c r="C1006">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:3">
       <c r="A1007">
         <v>9</v>
       </c>
@@ -9491,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:3">
       <c r="A1008">
         <v>18</v>
       </c>
@@ -9503,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:3">
       <c r="B1009">
         <v>5</v>
       </c>
@@ -9512,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:3">
       <c r="A1010">
         <v>25</v>
       </c>
@@ -9524,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:3">
       <c r="A1011">
         <v>72</v>
       </c>
@@ -9536,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:3">
       <c r="B1012">
         <v>12</v>
       </c>
@@ -9545,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:3">
       <c r="A1013">
         <v>23</v>
       </c>
@@ -9557,7 +9555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:3">
       <c r="A1014">
         <v>11</v>
       </c>
@@ -9566,13 +9564,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:3">
       <c r="C1015">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:3">
       <c r="A1016">
         <v>8</v>
       </c>
@@ -9581,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:3">
       <c r="A1017">
         <v>2</v>
       </c>
@@ -9590,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:3">
       <c r="A1018">
         <v>7</v>
       </c>
@@ -9599,19 +9597,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:3">
       <c r="C1019">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:3">
       <c r="C1020">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:3">
       <c r="A1021">
         <v>5</v>
       </c>
@@ -9623,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:3">
       <c r="A1022">
         <v>3</v>
       </c>
@@ -9632,7 +9630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:3">
       <c r="B1023">
         <v>60</v>
       </c>
@@ -9641,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:3">
       <c r="A1024">
         <v>10</v>
       </c>
@@ -9650,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:3">
       <c r="A1025">
         <v>25</v>
       </c>
@@ -9662,25 +9660,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:3">
       <c r="C1026">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:3">
       <c r="C1027">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:3">
       <c r="C1028">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:3">
       <c r="B1029">
         <v>5</v>
       </c>
@@ -9689,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:3">
       <c r="A1030">
         <v>9</v>
       </c>
@@ -9701,19 +9699,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:3">
       <c r="C1031">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:3">
       <c r="C1032">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:3">
       <c r="B1033">
         <v>24</v>
       </c>
@@ -9722,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:3">
       <c r="A1034">
         <v>30</v>
       </c>
@@ -9734,7 +9732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:3">
       <c r="B1035">
         <v>10</v>
       </c>
@@ -9743,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:3">
       <c r="A1036">
         <v>5</v>
       </c>
@@ -9755,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:3">
       <c r="B1037">
         <v>21</v>
       </c>
@@ -9764,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:3">
       <c r="A1038">
         <v>80</v>
       </c>
@@ -9776,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:3">
       <c r="A1039">
         <v>12</v>
       </c>
@@ -9788,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:3">
       <c r="A1040">
         <v>17</v>
       </c>
@@ -9800,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:3">
       <c r="A1041">
         <v>5</v>
       </c>
@@ -9812,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:3">
       <c r="B1042">
         <v>4</v>
       </c>
@@ -9821,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:3">
       <c r="B1043">
         <v>4</v>
       </c>
@@ -9830,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:3">
       <c r="A1044">
         <v>10</v>
       </c>
@@ -9839,7 +9837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:3">
       <c r="A1045">
         <v>43</v>
       </c>
@@ -9848,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:3">
       <c r="B1046">
         <v>36</v>
       </c>
@@ -9857,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:3">
       <c r="B1047">
         <v>4</v>
       </c>
@@ -9866,13 +9864,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:3">
       <c r="C1048">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:3">
       <c r="A1049">
         <v>27</v>
       </c>
@@ -9881,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:3">
       <c r="A1050">
         <v>80</v>
       </c>
@@ -9893,19 +9891,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:3">
       <c r="C1051">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:3">
       <c r="C1052">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:3">
       <c r="A1053">
         <v>43</v>
       </c>
@@ -9917,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:3">
       <c r="B1054">
         <v>22</v>
       </c>
@@ -9926,19 +9924,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:3">
       <c r="C1055">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:3">
       <c r="C1056">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:3">
       <c r="A1057">
         <v>8</v>
       </c>
@@ -9950,7 +9948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:3">
       <c r="B1058">
         <v>8</v>
       </c>
@@ -9959,25 +9957,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:3">
       <c r="C1059">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:3">
       <c r="C1060">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:3">
       <c r="C1061">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:3">
       <c r="A1062">
         <v>17</v>
       </c>
@@ -9989,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:3">
       <c r="A1063">
         <v>2</v>
       </c>
@@ -9998,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:3">
       <c r="A1064">
         <v>3</v>
       </c>
@@ -10010,7 +10008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:3">
       <c r="B1065">
         <v>23</v>
       </c>
@@ -10019,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:3">
       <c r="A1066">
         <v>15</v>
       </c>
@@ -10031,13 +10029,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:3">
       <c r="C1067">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:3">
       <c r="A1068">
         <v>3</v>
       </c>
@@ -10049,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:3">
       <c r="A1069">
         <v>12</v>
       </c>
@@ -10058,19 +10056,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:3">
       <c r="C1070">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:3">
       <c r="C1071">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:3">
       <c r="A1072">
         <v>12</v>
       </c>
@@ -10082,13 +10080,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:3">
       <c r="C1073">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:3">
       <c r="A1074">
         <v>6</v>
       </c>
@@ -10097,13 +10095,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:3">
       <c r="C1075">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:3">
       <c r="A1076">
         <v>3</v>
       </c>
@@ -10115,7 +10113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:3">
       <c r="B1077">
         <v>7</v>
       </c>
@@ -10124,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:3">
       <c r="A1078">
         <v>30</v>
       </c>
@@ -10135,5 +10133,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>